--- a/src/SharpDevLib.Tests/TestData/OpenXML/Normal.xlsx
+++ b/src/SharpDevLib.Tests/TestData/OpenXML/Normal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Local\sharp-dev-lib\src\SharpDevLib.Tests\TestData\OpenXML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1DE243-2E7A-4330-86C7-89DFF37256CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADF5331-0F7A-4B6A-924B-0088A38D94B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12510" yWindow="6450" windowWidth="22500" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="6690" windowWidth="32910" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>StringValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,10 @@
   </si>
   <si>
     <t>A3 Value is very long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SomeVeryLongLongLongLongLongLongValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,7 +413,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -510,7 +514,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -567,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">

--- a/src/SharpDevLib.Tests/TestData/OpenXML/Normal.xlsx
+++ b/src/SharpDevLib.Tests/TestData/OpenXML/Normal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Local\sharp-dev-lib\src\SharpDevLib.Tests\TestData\OpenXML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADF5331-0F7A-4B6A-924B-0088A38D94B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3BD763-EAEC-45C5-BCC1-43FE2D8EED76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="6690" windowWidth="32910" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="6690" windowWidth="32910" windowHeight="11820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1" sheetId="1" r:id="rId1"/>
@@ -92,6 +92,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,8 +131,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -412,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -451,7 +455,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="D2">
@@ -482,7 +486,7 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>3.1</v>
       </c>
       <c r="D4">
@@ -493,7 +497,7 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>4.0999999999999996</v>
       </c>
       <c r="D5">
@@ -513,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCEBE0F3-E2C6-4C38-AACD-6F2F203AF753}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -550,7 +554,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="D2">
@@ -567,6 +571,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="1"/>
       <c r="E3" t="b">
         <v>0</v>
       </c>
@@ -581,7 +586,7 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>3.1</v>
       </c>
       <c r="D4">
@@ -592,7 +597,7 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>4.0999999999999996</v>
       </c>
       <c r="D5">
